--- a/Sowfin.API/wwwroot/capital_structure.xlsx
+++ b/Sowfin.API/wwwroot/capital_structure.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CapitalStructure" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
@@ -478,117 +478,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
-    <xf numFmtId="8" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="8" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
